--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P3" s="0" t="inlineStr">
         <is>
-          <t>{"appId": null, "msgId": "17c504a22e5f79115029cdbe2b4", "msgCode": 0, "message": "OK", "data": {"content": [{"id": "196f6da175d0e756a060a359e61", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "文章1", "status": true, "sort": 1, "useful": 1, "useless": 0, "content": "吃的是草考试", "contentHtml": "&lt;p&gt;吃的是草考试&lt;/p&gt;\n", "staticContent": "吃的是草考试", "staticContentHtml": "&lt;p&gt;吃的是草考试&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-01 09:32:15", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 2, "creTime": "2025-05-22 15:16:50", "fileId": null, "fileName": "196f6da175d0e756a060a359e61", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "吃的是草考试", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html"}, {"id": "196f6da75390e756a060a359e62", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "修改文章2引用文章1", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "修改[文章1](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)\n\n[手动阀萨芬](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1)", "contentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "staticContent": "修改[文章1](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)\n\n[手动阀萨芬](https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html)", "staticContentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-05-27 20:39:04", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 0, "creTime": "2025-05-22 15:17:14", "fileId": null, "fileName": "196f6da75390e756a060a359e62", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da75390e756a060a359e62-h5.html"}, {"id": "196fc65a48f0e756a076ba3229b", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "是多少的", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "潇洒成都市", "contentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "staticContent": "潇洒成都市", "staticContentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-07-14 16:18:16", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-23 17:07:22", "fileId": null, "fileName": "196fc65a48f0e756a076ba3229b", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "潇洒成都市", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196fc65a48f0e756a076ba3229b-h5.html"}, {"id": "198161dcc420e756a7d93fa63e6", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "冲冲冲", "status": true, "sort": 4, "useful": 0, "useless": 0, "content": "发多少", "contentHtml": "&lt;p&gt;发多少&lt;/p&gt;\n", "staticContent": "发多少", "staticContentHtml": "&lt;p&gt;发多少&lt;/p&gt;\n", "lastModBy": "blu98765", "modTime": "2025-07-17 10:04:05", "creBy": "18a540d2a9b6f8a3c5dde08bc6a", "creByName": "blu98765", "visits": 0, "creTime": "2025-07-17 10:01:48", "fileId": null, "fileName": "198161dcc420e756a7d93fa63e6", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "发多少", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198161dcc420e756a7d93fa63e6-h5.html"}], "additions": null, "pageNo": 1, "totalElements": "4", "last": true, "totalPages": 1, "numberOfElements": 4, "first": true, "empty": false, "pageSize": 10}, "error": null, "code": 0}</t>
+          <t>{"appId": null, "msgId": "17c504a22e5f79115029cdbe2b4", "msgCode": 0, "message": "OK", "data": {"content": [{"id": "196f6da175d0e756a060a359e61", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "文章1修改修改", "status": true, "sort": 1, "useful": 1, "useless": 1, "content": "吃的是草考试修改修改", "visibleRange": 2, "contentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "staticContent": "吃的是草考试修改修改", "staticContentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-19 11:54:29", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 3, "creTime": "2025-05-22 15:16:50", "fileId": null, "fileName": "196f6da175d0e756a060a359e61", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "吃的是草考试修改修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html"}, {"id": "196f6da75390e756a060a359e62", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "修改文章2引用文章1", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "修改[文章1](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)\n\n[手动阀萨芬](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1)", "visibleRange": 1, "contentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "staticContent": "修改[文章1](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)\n\n[手动阀萨芬](https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html)", "staticContentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:17", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-22 15:17:14", "fileId": null, "fileName": "196f6da75390e756a060a359e62", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da75390e756a060a359e62-h5.html"}, {"id": "198bbe7a7e60e756a63e3e6a1df", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "内部新增", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "删掉时代的所产生的", "visibleRange": 1, "contentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "staticContent": "删掉时代的所产生的", "staticContentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:42:38", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a7e60e756a63e3e6a1df", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "删掉时代的所产生的", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a7e60e756a63e3e6a1df-h5.html"}, {"id": "196fc65a48f0e756a076ba3229b", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "是多少的", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "潇洒成都市", "visibleRange": 1, "contentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "staticContent": "潇洒成都市", "staticContentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:22", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-23 17:07:22", "fileId": null, "fileName": "196fc65a48f0e756a076ba3229b", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "潇洒成都市", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196fc65a48f0e756a076ba3229b-h5.html"}, {"id": "198bbe7a8460e756a63e3e6a1e0", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "外部新增", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "色的涩涩的得瑟得瑟", "visibleRange": 1, "contentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "staticContent": "色的涩涩的得瑟得瑟", "staticContentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:26", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a8460e756a63e3e6a1e0", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "色的涩涩的得瑟得瑟", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a8460e756a63e3e6a1e0-h5.html"}, {"id": "198161dcc420e756a7d93fa63e6", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "冲冲冲", "status": true, "sort": 4, "useful": 0, "useless": 0, "content": "发多少", "visibleRange": 1, "contentHtml": "&lt;p&gt;发多少&lt;/p&gt;\n", "staticContent": "发多少", "staticContentHtml": "&lt;p&gt;发多少&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:30", "creBy": "18a540d2a9b6f8a3c5dde08bc6a", "creByName": "blu98765", "visits": 0, "creTime": "2025-07-17 10:01:48", "fileId": null, "fileName": "198161dcc420e756a7d93fa63e6", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "发多少", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198161dcc420e756a7d93fa63e6-h5.html"}], "additions": null, "totalElements": "6", "pageNo": 1, "totalPages": 1, "last": true, "numberOfElements": 6, "first": true, "empty": false, "pageSize": 10}, "error": null, "code": 0}</t>
         </is>
       </c>
     </row>

--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1252,6 +1252,7 @@
     <col width="47.75" customWidth="1" style="2" min="7" max="7"/>
     <col width="47.75" customWidth="1" style="3" min="8" max="8"/>
     <col width="38.875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="25.125" customWidth="1" style="3" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -1389,7 +1390,7 @@
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>message</t>
+          <t>res==1&gt;message==相等</t>
         </is>
       </c>
       <c r="N2" s="0" t="inlineStr">
@@ -1482,7 +1483,7 @@
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
-          <t>message</t>
+          <t>res==2&gt;message==相等</t>
         </is>
       </c>
       <c r="N3" s="0" t="inlineStr">
@@ -1497,7 +1498,7 @@
       </c>
       <c r="P3" s="0" t="inlineStr">
         <is>
-          <t>{"appId": null, "msgId": "17c504a22e5f79115029cdbe2b4", "msgCode": 0, "message": "OK", "data": {"content": [{"id": "196f6da175d0e756a060a359e61", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "文章1修改修改", "status": true, "sort": 1, "useful": 1, "useless": 1, "content": "吃的是草考试修改修改", "visibleRange": 2, "contentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "staticContent": "吃的是草考试修改修改", "staticContentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-19 11:54:29", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 3, "creTime": "2025-05-22 15:16:50", "fileId": null, "fileName": "196f6da175d0e756a060a359e61", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "吃的是草考试修改修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html"}, {"id": "196f6da75390e756a060a359e62", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "修改文章2引用文章1", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "修改[文章1](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)\n\n[手动阀萨芬](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1)", "visibleRange": 1, "contentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "staticContent": "修改[文章1](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)\n\n[手动阀萨芬](https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html)", "staticContentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:17", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-22 15:17:14", "fileId": null, "fileName": "196f6da75390e756a060a359e62", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da75390e756a060a359e62-h5.html"}, {"id": "198bbe7a7e60e756a63e3e6a1df", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "内部新增", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "删掉时代的所产生的", "visibleRange": 1, "contentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "staticContent": "删掉时代的所产生的", "staticContentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:42:38", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a7e60e756a63e3e6a1df", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "删掉时代的所产生的", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a7e60e756a63e3e6a1df-h5.html"}, {"id": "196fc65a48f0e756a076ba3229b", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "是多少的", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "潇洒成都市", "visibleRange": 1, "contentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "staticContent": "潇洒成都市", "staticContentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:22", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-23 17:07:22", "fileId": null, "fileName": "196fc65a48f0e756a076ba3229b", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "潇洒成都市", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196fc65a48f0e756a076ba3229b-h5.html"}, {"id": "198bbe7a8460e756a63e3e6a1e0", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "外部新增", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "色的涩涩的得瑟得瑟", "visibleRange": 1, "contentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "staticContent": "色的涩涩的得瑟得瑟", "staticContentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:26", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a8460e756a63e3e6a1e0", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "色的涩涩的得瑟得瑟", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a8460e756a63e3e6a1e0-h5.html"}, {"id": "198161dcc420e756a7d93fa63e6", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "冲冲冲", "status": true, "sort": 4, "useful": 0, "useless": 0, "content": "发多少", "visibleRange": 1, "contentHtml": "&lt;p&gt;发多少&lt;/p&gt;\n", "staticContent": "发多少", "staticContentHtml": "&lt;p&gt;发多少&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:30", "creBy": "18a540d2a9b6f8a3c5dde08bc6a", "creByName": "blu98765", "visits": 0, "creTime": "2025-07-17 10:01:48", "fileId": null, "fileName": "198161dcc420e756a7d93fa63e6", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "发多少", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198161dcc420e756a7d93fa63e6-h5.html"}], "additions": null, "totalElements": "6", "pageNo": 1, "totalPages": 1, "last": true, "numberOfElements": 6, "first": true, "empty": false, "pageSize": 10}, "error": null, "code": 0}</t>
+          <t>{"appId": null, "msgId": "17c504a22e5f79115029cdbe2b4", "msgCode": 0, "message": "OK", "data": {"content": [{"id": "196f6da175d0e756a060a359e61", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "文章1修改修改", "status": true, "sort": 1, "useful": 1, "useless": 2, "content": "吃的是草考试修改修改", "visibleRange": 2, "contentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "staticContent": "吃的是草考试修改修改", "staticContentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-28 17:55:04", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 4, "creTime": "2025-05-22 15:16:50", "fileId": null, "fileName": "196f6da175d0e756a060a359e61", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "吃的是草考试修改修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html"}, {"id": "196f6da75390e756a060a359e62", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "修改文章2引用文章1", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "修改[文章1](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)\n\n[手动阀萨芬](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1)", "visibleRange": 1, "contentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "staticContent": "修改[文章1](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)\n\n[手动阀萨芬](https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html)", "staticContentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:17", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-22 15:17:14", "fileId": null, "fileName": "196f6da75390e756a060a359e62", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da75390e756a060a359e62-h5.html"}, {"id": "198bbe7a7e60e756a63e3e6a1df", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "内部新增", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "删掉时代的所产生的", "visibleRange": 1, "contentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "staticContent": "删掉时代的所产生的", "staticContentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:42:38", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a7e60e756a63e3e6a1df", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "删掉时代的所产生的", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a7e60e756a63e3e6a1df-h5.html"}, {"id": "196fc65a48f0e756a076ba3229b", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "是多少的", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "潇洒成都市", "visibleRange": 1, "contentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "staticContent": "潇洒成都市", "staticContentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:22", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-23 17:07:22", "fileId": null, "fileName": "196fc65a48f0e756a076ba3229b", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "潇洒成都市", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196fc65a48f0e756a076ba3229b-h5.html"}, {"id": "198bbe7a8460e756a63e3e6a1e0", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "外部新增", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "色的涩涩的得瑟得瑟", "visibleRange": 1, "contentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "staticContent": "色的涩涩的得瑟得瑟", "staticContentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:26", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a8460e756a63e3e6a1e0", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "色的涩涩的得瑟得瑟", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a8460e756a63e3e6a1e0-h5.html"}, {"id": "198def538c40e756a1fe5e259dd", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "cdsjkcds查看简单快捷", "status": false, "sort": 4, "useful": 0, "useless": 0, "content": "成都市成都市从事地产[文章1修改修改](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)[成都市水水水水](的赛场上的)\n除了看到什么快乐才是从来都是", "visibleRange": 2, "contentHtml": "&lt;p&gt;成都市成都市从事地产&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1修改修改&lt;/a&gt;&lt;a href=\"的赛场上的\"&gt;成都市水水水水&lt;/a&gt;\n除了看到什么快乐才是从来都是&lt;/p&gt;\n", "staticContent": "成都市成都市从事地产[文章1修改修改](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)[成都市水水水水](的赛场上的)\n除了看到什么快乐才是从来都是", "staticContentHtml": "&lt;p&gt;成都市成都市从事地产&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1修改修改&lt;/a&gt;&lt;a href=\"的赛场上的\"&gt;成都市水水水水&lt;/a&gt;\n除了看到什么快乐才是从来都是&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-25 10:01:27", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 0, "creTime": "2025-08-25 10:01:10", "fileId": null, "fileName": "198def538c40e756a1fe5e259dd", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "成都市成都市从事地产", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198def538c40e756a1fe5e259dd-h5.html"}], "additions": null, "pageNo": 1, "totalElements": "6", "totalPages": 1, "last": true, "numberOfElements": 6, "first": true, "empty": false, "pageSize": 10}, "error": null, "code": 0}</t>
         </is>
       </c>
     </row>

--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -626,7 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -634,11 +634,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1239,20 +1240,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="20.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="47.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="47.75" customWidth="1" style="3" min="8" max="8"/>
-    <col width="38.875" customWidth="1" style="3" min="10" max="10"/>
-    <col width="25.125" customWidth="1" style="3" min="13" max="13"/>
+    <col width="20.5" customWidth="1" style="6" min="6" max="6"/>
+    <col width="47.75" customWidth="1" style="6" min="7" max="7"/>
+    <col width="47.75" customWidth="1" style="2" min="8" max="8"/>
+    <col width="38.875" customWidth="1" style="2" min="10" max="10"/>
+    <col width="25.125" customWidth="1" style="2" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -1281,12 +1282,12 @@
           <t>依赖key</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>环境</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>服务</t>
         </is>
@@ -1337,7 +1338,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="108" customHeight="1" s="3">
+    <row r="2" ht="108" customHeight="1" s="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1351,12 +1352,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>test_hk</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>营销</t>
         </is>
@@ -1371,7 +1372,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="J2" s="7" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>{
     "id": "196f6d8b65d0e756a060a359e49"
@@ -1409,7 +1410,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="202.5" customHeight="1" s="3">
+    <row r="3" ht="202.5" customHeight="1" s="2">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1433,17 +1434,17 @@
           <t>wikiId</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>test_hk</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>营销</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>/wiki/article/page</t>
         </is>
@@ -1453,7 +1454,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>{
     "title": "",
@@ -1502,328 +1503,186 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="0" t="n"/>
-      <c r="J4" s="0" t="n"/>
-    </row>
-    <row r="5">
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="0" t="n"/>
-      <c r="J5" s="0" t="n"/>
-    </row>
-    <row r="6">
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="0" t="n"/>
-      <c r="J6" s="0" t="n"/>
-    </row>
-    <row r="7">
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="0" t="n"/>
-      <c r="J7" s="0" t="n"/>
-    </row>
-    <row r="8">
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="0" t="n"/>
-      <c r="J8" s="0" t="n"/>
-    </row>
-    <row r="9">
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="0" t="n"/>
-      <c r="J9" s="0" t="n"/>
-    </row>
-    <row r="10">
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="0" t="n"/>
-      <c r="J10" s="0" t="n"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="0" t="n"/>
-      <c r="J11" s="0" t="n"/>
-    </row>
-    <row r="12">
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="0" t="n"/>
-      <c r="J12" s="0" t="n"/>
-    </row>
-    <row r="13">
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="0" t="n"/>
-      <c r="J13" s="0" t="n"/>
-    </row>
-    <row r="14">
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="0" t="n"/>
-      <c r="J14" s="0" t="n"/>
-    </row>
-    <row r="15">
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="0" t="n"/>
-      <c r="J15" s="0" t="n"/>
-    </row>
-    <row r="16">
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="0" t="n"/>
-      <c r="J16" s="0" t="n"/>
-    </row>
-    <row r="17">
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="0" t="n"/>
-      <c r="J17" s="0" t="n"/>
-    </row>
-    <row r="18">
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="0" t="n"/>
-      <c r="J18" s="0" t="n"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="0" t="n"/>
-      <c r="J19" s="0" t="n"/>
-    </row>
-    <row r="20">
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="0" t="n"/>
-      <c r="J20" s="0" t="n"/>
-    </row>
-    <row r="21">
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="0" t="n"/>
-      <c r="J21" s="0" t="n"/>
-    </row>
-    <row r="22">
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="0" t="n"/>
-      <c r="J22" s="0" t="n"/>
-    </row>
-    <row r="23">
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="0" t="n"/>
-      <c r="J23" s="0" t="n"/>
-    </row>
-    <row r="24">
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="0" t="n"/>
-      <c r="J24" s="0" t="n"/>
-    </row>
-    <row r="25">
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="0" t="n"/>
-      <c r="J25" s="0" t="n"/>
-    </row>
-    <row r="26">
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="0" t="n"/>
-      <c r="J26" s="0" t="n"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="0" t="n"/>
-      <c r="J27" s="0" t="n"/>
-    </row>
-    <row r="28">
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-      <c r="H28" s="0" t="n"/>
-      <c r="J28" s="0" t="n"/>
-    </row>
-    <row r="29">
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-      <c r="H29" s="0" t="n"/>
-      <c r="J29" s="0" t="n"/>
-    </row>
-    <row r="30">
-      <c r="F30" s="5" t="n"/>
-      <c r="G30" s="5" t="n"/>
-      <c r="H30" s="0" t="n"/>
-      <c r="J30" s="0" t="n"/>
-    </row>
-    <row r="31">
-      <c r="F31" s="5" t="n"/>
-      <c r="G31" s="5" t="n"/>
-      <c r="H31" s="0" t="n"/>
-      <c r="J31" s="0" t="n"/>
-    </row>
-    <row r="32">
-      <c r="F32" s="5" t="n"/>
-      <c r="G32" s="5" t="n"/>
-      <c r="H32" s="0" t="n"/>
-      <c r="J32" s="0" t="n"/>
-    </row>
-    <row r="33">
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="5" t="n"/>
-      <c r="H33" s="0" t="n"/>
-      <c r="J33" s="0" t="n"/>
-    </row>
-    <row r="34">
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="5" t="n"/>
-      <c r="H34" s="0" t="n"/>
-      <c r="J34" s="0" t="n"/>
-    </row>
-    <row r="35">
-      <c r="F35" s="5" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="0" t="n"/>
-      <c r="J35" s="0" t="n"/>
-    </row>
-    <row r="36">
-      <c r="F36" s="5" t="n"/>
-      <c r="G36" s="5" t="n"/>
-      <c r="H36" s="0" t="n"/>
-      <c r="J36" s="0" t="n"/>
-    </row>
-    <row r="37">
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="5" t="n"/>
-      <c r="H37" s="0" t="n"/>
-      <c r="J37" s="0" t="n"/>
-    </row>
-    <row r="38">
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="5" t="n"/>
-      <c r="H38" s="0" t="n"/>
-      <c r="J38" s="0" t="n"/>
-    </row>
-    <row r="39">
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="0" t="n"/>
-      <c r="J39" s="0" t="n"/>
-    </row>
-    <row r="40">
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="5" t="n"/>
-      <c r="H40" s="0" t="n"/>
-      <c r="J40" s="0" t="n"/>
-    </row>
-    <row r="41">
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="5" t="n"/>
-      <c r="H41" s="0" t="n"/>
-      <c r="J41" s="0" t="n"/>
-    </row>
-    <row r="42">
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="5" t="n"/>
-      <c r="H42" s="0" t="n"/>
-      <c r="J42" s="0" t="n"/>
-    </row>
-    <row r="43">
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="5" t="n"/>
-      <c r="H43" s="0" t="n"/>
-      <c r="J43" s="0" t="n"/>
-    </row>
-    <row r="44">
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="5" t="n"/>
-      <c r="H44" s="0" t="n"/>
-      <c r="J44" s="0" t="n"/>
-    </row>
-    <row r="45">
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="5" t="n"/>
-      <c r="H45" s="0" t="n"/>
-      <c r="J45" s="0" t="n"/>
-    </row>
-    <row r="46">
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="5" t="n"/>
-      <c r="H46" s="0" t="n"/>
-      <c r="J46" s="0" t="n"/>
-    </row>
-    <row r="47">
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="5" t="n"/>
-      <c r="H47" s="0" t="n"/>
-      <c r="J47" s="0" t="n"/>
-    </row>
-    <row r="48">
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="5" t="n"/>
-      <c r="H48" s="0" t="n"/>
-      <c r="J48" s="0" t="n"/>
-    </row>
-    <row r="49">
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="5" t="n"/>
-      <c r="H49" s="0" t="n"/>
-      <c r="J49" s="0" t="n"/>
-    </row>
-    <row r="50">
-      <c r="F50" s="5" t="n"/>
-      <c r="G50" s="5" t="n"/>
-      <c r="H50" s="0" t="n"/>
-      <c r="J50" s="0" t="n"/>
-    </row>
-    <row r="51">
-      <c r="F51" s="5" t="n"/>
-      <c r="G51" s="5" t="n"/>
-      <c r="H51" s="0" t="n"/>
-      <c r="J51" s="0" t="n"/>
-    </row>
-    <row r="52">
-      <c r="F52" s="5" t="n"/>
-      <c r="G52" s="5" t="n"/>
-      <c r="H52" s="0" t="n"/>
-      <c r="J52" s="0" t="n"/>
-    </row>
-    <row r="53">
-      <c r="F53" s="5" t="n"/>
-      <c r="G53" s="5" t="n"/>
-      <c r="H53" s="0" t="n"/>
-      <c r="J53" s="0" t="n"/>
-    </row>
-    <row r="54">
-      <c r="F54" s="5" t="n"/>
-      <c r="G54" s="5" t="n"/>
-      <c r="H54" s="0" t="n"/>
-      <c r="J54" s="0" t="n"/>
-    </row>
-    <row r="55">
-      <c r="F55" s="5" t="n"/>
-      <c r="G55" s="5" t="n"/>
-      <c r="H55" s="0" t="n"/>
-      <c r="J55" s="0" t="n"/>
-    </row>
-    <row r="56">
-      <c r="F56" s="5" t="n"/>
-      <c r="G56" s="5" t="n"/>
-      <c r="H56" s="0" t="n"/>
-      <c r="J56" s="0" t="n"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" tooltip="http://172.20.20.103:20109/wiki/article/page" display="/wiki/article/page" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col width="20.875" customWidth="1" style="2" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>作用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>依赖key</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>环境</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>服务</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cookie操作</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>header操作</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果方式</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="108" customHeight="1" s="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>获取百科子目录</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>test_hk</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>营销</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>/wiki/children</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>{
+    "id": "196f6d8b65d0e756a060a359e49"
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>res==1&gt;message==相等</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="inlineStr">
+        <is>
+          <t>{"appId": null, "msgId": "17c504a22e5f79115029cdbe2b4", "msgCode": 0, "message": "OK", "data": [{"id": "196f6d8e8b40e756a060a359e4e", "pid": "196f6d8b65d0e756a060a359e49", "leafLevel": 4, "title": "GeneralA", "extensionType": 1, "image": "", "imageUrl": "", "productModel": "AC180", "remark": "备注", "sort": 1, "status": true, "fileName": "GeneralA", "filePath": "/FAQ/AC series-12/AC200+B300", "rootCode": 1, "fileStaticUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA-h5.html", "countries": [{"countryId": "6252001", "countryCode": "US", "countryName": "美国"}, {"countryId": "1861060", "countryCode": "JP", "countryName": "日本"}], "extensionData": [], "requiredFieldsCheck": {"countries": false, "image": false, "model": false, "siteProduct": false}}], "error": null, "code": 0}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="case" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1671,7 +1671,7 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>1&gt;data[0].id</t>
+          <t>res==1&gt;data[0].id</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -1520,7 +1520,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1671,7 +1671,7 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1520,7 +1520,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1671,7 +1671,7 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -168,6 +168,11 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="33">
@@ -979,6 +984,115 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+编号</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+接口描述</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+是否执行，默认执行，yes表示执行，其他任何字符表示不执行</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+获取动态请求数据的规则，当前支持从返回结果获取数据，从数据库获取数据
+1、res==1&gt;data[0].id：获取第一行的返回结果中data的第一个数据中的id
+2、sql==db..field..table..factor_str：
+从db数据库table表查询field字段，条件是factor_str</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+请求数据中需要从其他地方动态获取的key</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">admin:
+测试环境，和environment配置文件的key一致，用于读取host
+</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+服务中文名字，和environment配置文件的section一致，用于读取host</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+请求方式，当前支持get、post</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+json格式</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+no：不处理，当前统一不处理，需要时再写相关方法</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+1、yes：获取header
+2、no：不处理
+3、1&gt;data.token=Authorization：获取第一行的返回结果中的token写入header，key是Authorization，value是token值</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+断言规则，支持返回数据任意字段断言，支持数据库查询断言，支持断言相等、不等、包含。其他方式，需要再支持
+1、res==1&gt;data[0].id==相等：断言返回数据，断言第一行，返回数据中data第一个数据的id和期望值相等
+2、sql==db..field..table..factor_str==相等：
+断言数据库查询数据，断言db库，table表，查询条件factor_str，字段field和期望值相等</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+断言的期望结果</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+测试结果，通过或失败</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <t>admin:
+接口测试，接口返回的结果</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1243,7 +1357,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O2" sqref="O2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1492,7 +1606,7 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="O3" s="0" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1508,6 +1622,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" tooltip="http://172.20.20.103:20109/wiki/article/page" display="/wiki/article/page" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -1519,13 +1634,15 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col width="20.875" customWidth="1" style="2" min="3" max="3"/>
+    <col width="37.125" customWidth="1" style="2" min="10" max="10"/>
+    <col width="18.375" customWidth="1" style="2" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -1663,13 +1780,11 @@
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>res==1&gt;message==相等</t>
-        </is>
-      </c>
-      <c r="N2" s="0" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+          <t>res==1&gt;msgCode==相等</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>

--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -1606,7 +1606,7 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="0" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/api_test/case.xlsx
+++ b/api_test/case.xlsx
@@ -1613,7 +1613,7 @@
       </c>
       <c r="P3" s="0" t="inlineStr">
         <is>
-          <t>{"appId": null, "msgId": "17c504a22e5f79115029cdbe2b4", "msgCode": 0, "message": "OK", "data": {"content": [{"id": "196f6da175d0e756a060a359e61", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "文章1修改修改", "status": true, "sort": 1, "useful": 1, "useless": 2, "content": "吃的是草考试修改修改", "visibleRange": 2, "contentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "staticContent": "吃的是草考试修改修改", "staticContentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-28 17:55:04", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 4, "creTime": "2025-05-22 15:16:50", "fileId": null, "fileName": "196f6da175d0e756a060a359e61", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "吃的是草考试修改修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html"}, {"id": "196f6da75390e756a060a359e62", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "修改文章2引用文章1", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "修改[文章1](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)\n\n[手动阀萨芬](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1)", "visibleRange": 1, "contentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "staticContent": "修改[文章1](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)\n\n[手动阀萨芬](https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html)", "staticContentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:17", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-22 15:17:14", "fileId": null, "fileName": "196f6da75390e756a060a359e62", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da75390e756a060a359e62-h5.html"}, {"id": "198bbe7a7e60e756a63e3e6a1df", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "内部新增", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "删掉时代的所产生的", "visibleRange": 1, "contentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "staticContent": "删掉时代的所产生的", "staticContentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:42:38", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a7e60e756a63e3e6a1df", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "删掉时代的所产生的", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a7e60e756a63e3e6a1df-h5.html"}, {"id": "196fc65a48f0e756a076ba3229b", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "是多少的", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "潇洒成都市", "visibleRange": 1, "contentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "staticContent": "潇洒成都市", "staticContentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:22", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-23 17:07:22", "fileId": null, "fileName": "196fc65a48f0e756a076ba3229b", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "潇洒成都市", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196fc65a48f0e756a076ba3229b-h5.html"}, {"id": "198bbe7a8460e756a63e3e6a1e0", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "外部新增", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "色的涩涩的得瑟得瑟", "visibleRange": 1, "contentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "staticContent": "色的涩涩的得瑟得瑟", "staticContentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:26", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a8460e756a63e3e6a1e0", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "色的涩涩的得瑟得瑟", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a8460e756a63e3e6a1e0-h5.html"}, {"id": "198def538c40e756a1fe5e259dd", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "cdsjkcds查看简单快捷", "status": false, "sort": 4, "useful": 0, "useless": 0, "content": "成都市成都市从事地产[文章1修改修改](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)[成都市水水水水](的赛场上的)\n除了看到什么快乐才是从来都是", "visibleRange": 2, "contentHtml": "&lt;p&gt;成都市成都市从事地产&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1修改修改&lt;/a&gt;&lt;a href=\"的赛场上的\"&gt;成都市水水水水&lt;/a&gt;\n除了看到什么快乐才是从来都是&lt;/p&gt;\n", "staticContent": "成都市成都市从事地产[文章1修改修改](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)[成都市水水水水](的赛场上的)\n除了看到什么快乐才是从来都是", "staticContentHtml": "&lt;p&gt;成都市成都市从事地产&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1修改修改&lt;/a&gt;&lt;a href=\"的赛场上的\"&gt;成都市水水水水&lt;/a&gt;\n除了看到什么快乐才是从来都是&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-25 10:01:27", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 0, "creTime": "2025-08-25 10:01:10", "fileId": null, "fileName": "198def538c40e756a1fe5e259dd", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "成都市成都市从事地产", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198def538c40e756a1fe5e259dd-h5.html"}], "additions": null, "pageNo": 1, "totalElements": "6", "totalPages": 1, "last": true, "numberOfElements": 6, "first": true, "empty": false, "pageSize": 10}, "error": null, "code": 0}</t>
+          <t>{"appId": null, "msgId": "17c504a22e5f79115029cdbe2b4", "msgCode": 0, "message": "OK", "data": {"content": [{"id": "196f6da175d0e756a060a359e61", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "文章1修改修改", "status": true, "sort": 1, "useful": 1, "useless": 2, "content": "吃的是草考试修改修改", "visibleRange": 2, "contentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "staticContent": "吃的是草考试修改修改", "staticContentHtml": "&lt;p&gt;吃的是草考试修改修改&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-28 17:55:04", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 4, "creTime": "2025-05-22 15:16:50", "fileId": null, "fileName": "196f6da175d0e756a060a359e61", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "吃的是草考试修改修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html"}, {"id": "196f6da75390e756a060a359e62", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "修改文章2引用文章1", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "修改[文章1](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)\n\n[手动阀萨芬](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1)", "visibleRange": 1, "contentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6e44b8f0e756a060a359ed1\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "staticContent": "修改[文章1](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)\n\n[手动阀萨芬](https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html)", "staticContentHtml": "&lt;p&gt;修改&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1&lt;/a&gt;&lt;/p&gt;\n&lt;p&gt;&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/Trouble%20Shooting/BC%20series-11/BC500/General/196f6e44b8f0e756a060a359ed1-h5.html\"&gt;手动阀萨芬&lt;/a&gt;&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:17", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-22 15:17:14", "fileId": null, "fileName": "196f6da75390e756a060a359e62", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "修改", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196f6da75390e756a060a359e62-h5.html"}, {"id": "198bbe7a7e60e756a63e3e6a1df", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "内部新增", "status": true, "sort": 2, "useful": 0, "useless": 0, "content": "删掉时代的所产生的", "visibleRange": 1, "contentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "staticContent": "删掉时代的所产生的", "staticContentHtml": "&lt;p&gt;删掉时代的所产生的&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:42:38", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a7e60e756a63e3e6a1df", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "删掉时代的所产生的", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a7e60e756a63e3e6a1df-h5.html"}, {"id": "196fc65a48f0e756a076ba3229b", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "是多少的", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "潇洒成都市", "visibleRange": 1, "contentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "staticContent": "潇洒成都市", "staticContentHtml": "&lt;p&gt;潇洒成都市&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:22", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 1, "creTime": "2025-05-23 17:07:22", "fileId": null, "fileName": "196fc65a48f0e756a076ba3229b", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "潇洒成都市", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/196fc65a48f0e756a076ba3229b-h5.html"}, {"id": "198bbe7a8460e756a63e3e6a1e0", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "外部新增", "status": true, "sort": 3, "useful": 0, "useless": 0, "content": "色的涩涩的得瑟得瑟", "visibleRange": 1, "contentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "staticContent": "色的涩涩的得瑟得瑟", "staticContentHtml": "&lt;p&gt;色的涩涩的得瑟得瑟&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-18 14:57:26", "creBy": "193956196a1dce640551875b80c", "creByName": null, "visits": null, "creTime": "2025-08-18 14:39:38", "fileId": null, "fileName": "198bbe7a8460e756a63e3e6a1e0", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "色的涩涩的得瑟得瑟", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198bbe7a8460e756a63e3e6a1e0-h5.html"}, {"id": "198def538c40e756a1fe5e259dd", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "cdsjkcds查看简单快捷", "status": false, "sort": 4, "useful": 0, "useless": 0, "content": "成都市成都市从事地产[文章1修改修改](https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61)[成都市水水水水](的赛场上的)\n除了看到什么快乐才是从来都是", "visibleRange": 2, "contentHtml": "&lt;p&gt;成都市成都市从事地产&lt;a href=\"https://test-app-h5.poweroak.ltd:18443/app/bluetti-wiki/dist/index.html?id=196f6da175d0e756a060a359e61\"&gt;文章1修改修改&lt;/a&gt;&lt;a href=\"的赛场上的\"&gt;成都市水水水水&lt;/a&gt;\n除了看到什么快乐才是从来都是&lt;/p&gt;\n", "staticContent": "成都市成都市从事地产[文章1修改修改](https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html)[成都市水水水水](的赛场上的)\n除了看到什么快乐才是从来都是", "staticContentHtml": "&lt;p&gt;成都市成都市从事地产&lt;a href=\"https://test-oss.poweroak.ltd:18443/static/FAQ/AC%20series-12/AC200+B300/GeneralA/196f6da175d0e756a060a359e61-h5.html\"&gt;文章1修改修改&lt;/a&gt;&lt;a href=\"的赛场上的\"&gt;成都市水水水水&lt;/a&gt;\n除了看到什么快乐才是从来都是&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-08-25 10:01:27", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 0, "creTime": "2025-08-25 10:01:10", "fileId": null, "fileName": "198def538c40e756a1fe5e259dd", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "成都市成都市从事地产", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/198def538c40e756a1fe5e259dd-h5.html"}, {"id": "199366024290e756a1a97f84e23", "wikiId": "196f6d8e8b40e756a060a359e4e", "wikiDisplay": "FAQ/AC series/AC200+B300/GeneralA", "title": "内容正文全是附件", "status": true, "sort": 5, "useful": 0, "useless": 0, "content": "发v更多\n\n", "visibleRange": 1, "contentHtml": "&lt;p&gt;发v更多&lt;/p&gt;\n", "staticContent": "发v更多\n\n", "staticContentHtml": "&lt;p&gt;发v更多&lt;/p&gt;\n", "lastModBy": "刘青林", "modTime": "2025-09-11 10:41:26", "creBy": "193956196a1dce640551875b80c", "creByName": "刘青林", "visits": 0, "creTime": "2025-09-11 09:24:54", "fileId": null, "fileName": "199366024290e756a1a97f84e23", "suffixNum": null, "fileServer": null, "filePath": "/FAQ/AC series-12/AC200+B300/GeneralA", "size": null, "wikiTitle": "GeneralA", "rootCode": 1, "productModel": null, "outline": "发v更多", "staticFileUrl": "https://test-oss.poweroak.ltd:18443/static/FAQ/AC series-12/AC200+B300/GeneralA/199366024290e756a1a97f84e23-h5.html"}], "additions": null, "pageNo": 1, "totalElements": "7", "totalPages": 1, "last": true, "numberOfElements": 7, "first": true, "empty": false, "pageSize": 10}, "error": null, "code": 0}</t>
         </is>
       </c>
     </row>
